--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -1,169 +1,272 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21624"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://raschadvisory-my.sharepoint.com/personal/danny_raschadvisory_onmicrosoft_com/Documents/DataScience/11_GitHub_DannyJRa.github.io/00_Template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_E9821890BBDE926DB9528824CAD488A2AA1B945D" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A3FF047F-2296-4134-B028-CCD132C2B25C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">folders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">github_page_prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">github_page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">github_repo_prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_BLOG.html</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>folders</t>
+  </si>
+  <si>
+    <t>github_page_prefix</t>
+  </si>
+  <si>
+    <t>github_page</t>
+  </si>
+  <si>
+    <t>github_repo_prefix</t>
+  </si>
+  <si>
+    <t>01_blog_caret_Tut_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 blog caret Tut </t>
+  </si>
+  <si>
+    <t>01_Blog_caret</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/01_Blog_caret/01_blog_caret_Tut_BLOG.html</t>
+  </si>
+  <si>
+    <t>https://github.com/DannyJRa/DannyJRa.github.io/tree/master/</t>
+  </si>
+  <si>
+    <t>json_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json </t>
+  </si>
+  <si>
+    <t>02_Blog_JSON/01_blog_json</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/02_Blog_JSON/01_blog_json/json_BLOG.html</t>
+  </si>
+  <si>
+    <t>03_20_Azure_Workflow_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03 20 Azure Workflow </t>
+  </si>
+  <si>
+    <t>03_Blog_Azure_RStudio</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/03_Blog_Azure_RStudio/03_20_Azure_Workflow_BLOG.html</t>
+  </si>
+  <si>
+    <t>04_R_packages_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04 R packages </t>
+  </si>
+  <si>
+    <t>04_R_Packages</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/04_R_Packages/04_R_packages_BLOG.html</t>
+  </si>
+  <si>
+    <t>05_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">05 </t>
   </si>
   <si>
-    <t xml:space="preserve">05_Blog_BigData_Spark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/05_Blog_BigData_Spark/05_BLOG.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DannyJRa/DannyJRa.github.io/tree/master/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_BLOG.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_Network_Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/06_Network_Analysis/06_BLOG.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07_DSVM_Part1_BLOG.html</t>
+    <t>05_Blog_BigData_Spark</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/05_Blog_BigData_Spark/05_BLOG.html</t>
+  </si>
+  <si>
+    <t>06_Network_Analysis_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 Network Analysis </t>
+  </si>
+  <si>
+    <t>06_Network_Analysis</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/06_Network_Analysis/06_Network_Analysis_BLOG.html</t>
+  </si>
+  <si>
+    <t>07_DSVM_Part1_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">07 DSVM Part1 </t>
   </si>
   <si>
-    <t xml:space="preserve">07_DSVM_Part1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/07_DSVM_Part1/07_DSVM_Part1_BLOG.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08_MathArts_BLOG.html</t>
+    <t>07_DSVM_Part1</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/07_DSVM_Part1/07_DSVM_Part1_BLOG.html</t>
+  </si>
+  <si>
+    <t>08_MathArts_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">08 MathArts </t>
   </si>
   <si>
-    <t xml:space="preserve">08_Blog_MathArt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/08_Blog_MathArt/08_MathArts_BLOG.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09_Reticulate3_BLOG.html</t>
+    <t>08_Blog_MathArt</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/08_Blog_MathArt/08_MathArts_BLOG.html</t>
+  </si>
+  <si>
+    <t>09_Reticulate3_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">09 Reticulate3 </t>
   </si>
   <si>
-    <t xml:space="preserve">09_Reticulate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/09_Reticulate/09_Reticulate3_BLOG.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15_Docker_PostGreSQL_BLOG.html</t>
+    <t>09_Reticulate</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/09_Reticulate/09_Reticulate3_BLOG.html</t>
+  </si>
+  <si>
+    <t>15_Docker_PostGreSQL_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">15 Docker PostGreSQL </t>
   </si>
   <si>
-    <t xml:space="preserve">15_PostgreSQL_Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/15_PostgreSQL_Docker/15_Docker_PostGreSQL_BLOG.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19_Docker_NiFi_BLOG.html</t>
+    <t>15_PostgreSQL_Docker</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/15_PostgreSQL_Docker/15_Docker_PostGreSQL_BLOG.html</t>
+  </si>
+  <si>
+    <t>19_Docker_NiFi_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">19 Docker NiFi </t>
   </si>
   <si>
-    <t xml:space="preserve">19_Pipenv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/19_Pipenv/19_Docker_NiFi_BLOG.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54_Firebase_Shiny_BLOG.html</t>
+    <t>19_Pipenv</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/19_Pipenv/19_Docker_NiFi_BLOG.html</t>
+  </si>
+  <si>
+    <t>54_Firebase_Shiny_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">54 Firebase Shiny </t>
   </si>
   <si>
-    <t xml:space="preserve">54_Firebase_Shiny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/54_Firebase_Shiny/54_Firebase_Shiny_BLOG.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63_cloud_scheduler_BLOG.html</t>
+    <t>54_Firebase_Shiny</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/54_Firebase_Shiny/54_Firebase_Shiny_BLOG.html</t>
+  </si>
+  <si>
+    <t>58_django_basics_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 django basics </t>
+  </si>
+  <si>
+    <t>58_Django/01_blog_basics</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/58_Django/01_blog_basics/58_django_basics_BLOG.html</t>
+  </si>
+  <si>
+    <t>61_sparklyr_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 sparklyr </t>
+  </si>
+  <si>
+    <t>61_sparklyr</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/61_sparklyr/61_sparklyr_BLOG.html</t>
+  </si>
+  <si>
+    <t>63_cloud_scheduler_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">63 cloud scheduler </t>
   </si>
   <si>
-    <t xml:space="preserve">63_GCP_CloudScheduler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/63_GCP_CloudScheduler/63_cloud_scheduler_BLOG.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70_vscode_BLOG.html</t>
+    <t>63_GCP_CloudScheduler</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/63_GCP_CloudScheduler/63_cloud_scheduler_BLOG.html</t>
+  </si>
+  <si>
+    <t>MongoDB_-setup_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MongoDB -setup </t>
+  </si>
+  <si>
+    <t>67_MongoDB</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/67_MongoDB/MongoDB_-setup_BLOG.html</t>
+  </si>
+  <si>
+    <t>69_python_R_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 python R </t>
+  </si>
+  <si>
+    <t>69_Python_R</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/69_Python_R/69_python_R_BLOG.html</t>
+  </si>
+  <si>
+    <t>70_vscode_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">70 vscode </t>
   </si>
   <si>
-    <t xml:space="preserve">70_VSCOde-aaS/01_setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/70_VSCOde-aaS/01_setup/70_vscode_BLOG.html</t>
+    <t>70_VSCOde-aaS/01_setup</t>
+  </si>
+  <si>
+    <t>https://dannyjra.github.io/70_VSCOde-aaS/01_setup/70_vscode_BLOG.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -196,9 +299,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -480,14 +592,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -527,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -547,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -567,7 +687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -587,7 +707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -607,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -627,7 +747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -647,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -667,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -687,7 +807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -707,8 +827,168 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -1,272 +1,277 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21624"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://raschadvisory-my.sharepoint.com/personal/danny_raschadvisory_onmicrosoft_com/Documents/DataScience/11_GitHub_DannyJRa.github.io/00_Template/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_E9821890BBDE926DB9528824CAD488A2AA1B945D" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A3FF047F-2296-4134-B028-CCD132C2B25C}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
-  <si>
-    <t>files</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>folders</t>
-  </si>
-  <si>
-    <t>github_page_prefix</t>
-  </si>
-  <si>
-    <t>github_page</t>
-  </si>
-  <si>
-    <t>github_repo_prefix</t>
-  </si>
-  <si>
-    <t>01_blog_caret_Tut_BLOG.html</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+  <si>
+    <t xml:space="preserve">files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">github_page_prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">github_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">github_repo_prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_blog_caret_Tut_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">01 blog caret Tut </t>
   </si>
   <si>
-    <t>01_Blog_caret</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/01_Blog_caret/01_blog_caret_Tut_BLOG.html</t>
-  </si>
-  <si>
-    <t>https://github.com/DannyJRa/DannyJRa.github.io/tree/master/</t>
-  </si>
-  <si>
-    <t>json_BLOG.html</t>
+    <t xml:space="preserve">01_Blog_caret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/01_Blog_caret/01_blog_caret_Tut_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/DannyJRa/DannyJRa.github.io/tree/master/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">json </t>
   </si>
   <si>
-    <t>02_Blog_JSON/01_blog_json</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/02_Blog_JSON/01_blog_json/json_BLOG.html</t>
-  </si>
-  <si>
-    <t>03_20_Azure_Workflow_BLOG.html</t>
+    <t xml:space="preserve">02_Blog_JSON/01_blog_json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/02_Blog_JSON/01_blog_json/json_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_20_Azure_Workflow_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">03 20 Azure Workflow </t>
   </si>
   <si>
-    <t>03_Blog_Azure_RStudio</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/03_Blog_Azure_RStudio/03_20_Azure_Workflow_BLOG.html</t>
-  </si>
-  <si>
-    <t>04_R_packages_BLOG.html</t>
+    <t xml:space="preserve">03_Blog_Azure_RStudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/03_Blog_Azure_RStudio/03_20_Azure_Workflow_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_R_packages_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">04 R packages </t>
   </si>
   <si>
-    <t>04_R_Packages</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/04_R_Packages/04_R_packages_BLOG.html</t>
-  </si>
-  <si>
-    <t>05_BLOG.html</t>
+    <t xml:space="preserve">04_R_Packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/04_R_Packages/04_R_packages_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">05 </t>
   </si>
   <si>
-    <t>05_Blog_BigData_Spark</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/05_Blog_BigData_Spark/05_BLOG.html</t>
-  </si>
-  <si>
-    <t>06_Network_Analysis_BLOG.html</t>
+    <t xml:space="preserve">05_Blog_BigData_Spark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/05_Blog_BigData_Spark/05_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_Network_Analysis_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">06 Network Analysis </t>
   </si>
   <si>
-    <t>06_Network_Analysis</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/06_Network_Analysis/06_Network_Analysis_BLOG.html</t>
-  </si>
-  <si>
-    <t>07_DSVM_Part1_BLOG.html</t>
+    <t xml:space="preserve">06_Network_Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/06_Network_Analysis/06_Network_Analysis_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_DSVM_Part1_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">07 DSVM Part1 </t>
   </si>
   <si>
-    <t>07_DSVM_Part1</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/07_DSVM_Part1/07_DSVM_Part1_BLOG.html</t>
-  </si>
-  <si>
-    <t>08_MathArts_BLOG.html</t>
+    <t xml:space="preserve">07_DSVM_Part1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/07_DSVM_Part1/07_DSVM_Part1_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_MathArts_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">08 MathArts </t>
   </si>
   <si>
-    <t>08_Blog_MathArt</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/08_Blog_MathArt/08_MathArts_BLOG.html</t>
-  </si>
-  <si>
-    <t>09_Reticulate3_BLOG.html</t>
+    <t xml:space="preserve">08_Blog_MathArt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/08_Blog_MathArt/08_MathArts_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_Reticulate3_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">09 Reticulate3 </t>
   </si>
   <si>
-    <t>09_Reticulate</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/09_Reticulate/09_Reticulate3_BLOG.html</t>
-  </si>
-  <si>
-    <t>15_Docker_PostGreSQL_BLOG.html</t>
+    <t xml:space="preserve">09_Reticulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/09_Reticulate/09_Reticulate3_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_Docker_PostGreSQL_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">15 Docker PostGreSQL </t>
   </si>
   <si>
-    <t>15_PostgreSQL_Docker</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/15_PostgreSQL_Docker/15_Docker_PostGreSQL_BLOG.html</t>
-  </si>
-  <si>
-    <t>19_Docker_NiFi_BLOG.html</t>
+    <t xml:space="preserve">15_PostgreSQL_Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/15_PostgreSQL_Docker/15_Docker_PostGreSQL_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_Docker_NiFi_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">19 Docker NiFi </t>
   </si>
   <si>
-    <t>19_Pipenv</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/19_Pipenv/19_Docker_NiFi_BLOG.html</t>
-  </si>
-  <si>
-    <t>54_Firebase_Shiny_BLOG.html</t>
+    <t xml:space="preserve">19_Pipenv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/19_Pipenv/19_Docker_NiFi_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54_Firebase_Shiny_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">54 Firebase Shiny </t>
   </si>
   <si>
-    <t>54_Firebase_Shiny</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/54_Firebase_Shiny/54_Firebase_Shiny_BLOG.html</t>
-  </si>
-  <si>
-    <t>58_django_basics_BLOG.html</t>
+    <t xml:space="preserve">54_Firebase_Shiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/54_Firebase_Shiny/54_Firebase_Shiny_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58_django_basics_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">58 django basics </t>
   </si>
   <si>
-    <t>58_Django/01_blog_basics</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/58_Django/01_blog_basics/58_django_basics_BLOG.html</t>
-  </si>
-  <si>
-    <t>61_sparklyr_BLOG.html</t>
+    <t xml:space="preserve">58_Django/01_blog_basics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/58_Django/01_blog_basics/58_django_basics_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61_sparklyr_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">61 sparklyr </t>
   </si>
   <si>
-    <t>61_sparklyr</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/61_sparklyr/61_sparklyr_BLOG.html</t>
-  </si>
-  <si>
-    <t>63_cloud_scheduler_BLOG.html</t>
+    <t xml:space="preserve">61_sparklyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/61_sparklyr/61_sparklyr_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63_cloud_scheduler_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">63 cloud scheduler </t>
   </si>
   <si>
-    <t>63_GCP_CloudScheduler</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/63_GCP_CloudScheduler/63_cloud_scheduler_BLOG.html</t>
-  </si>
-  <si>
-    <t>MongoDB_-setup_BLOG.html</t>
+    <t xml:space="preserve">63_GCP_CloudScheduler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/63_GCP_CloudScheduler/63_cloud_scheduler_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MongoDB_-setup_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">MongoDB -setup </t>
   </si>
   <si>
-    <t>67_MongoDB</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/67_MongoDB/MongoDB_-setup_BLOG.html</t>
-  </si>
-  <si>
-    <t>69_python_R_BLOG.html</t>
+    <t xml:space="preserve">67_MongoDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/67_MongoDB/MongoDB_-setup_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_python_R_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">69 python R </t>
   </si>
   <si>
-    <t>69_Python_R</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/69_Python_R/69_python_R_BLOG.html</t>
-  </si>
-  <si>
-    <t>70_vscode_BLOG.html</t>
+    <t xml:space="preserve">69_Python_R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/69_Python_R/69_python_R_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70_vscode_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">70 vscode </t>
   </si>
   <si>
-    <t>70_VSCOde-aaS/01_setup</t>
-  </si>
-  <si>
-    <t>https://dannyjra.github.io/70_VSCOde-aaS/01_setup/70_vscode_BLOG.html</t>
+    <t xml:space="preserve">70_VSCOde-aaS/01_setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/70_VSCOde-aaS/01_setup/70_vscode_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72_Nginx_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72 Nginx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">72_Nginx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/72_Nginx/72_Nginx_BLOG.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -299,18 +304,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -592,22 +588,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.53125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -647,7 +635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -667,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -687,7 +675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -707,7 +695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -727,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -747,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -767,7 +755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -787,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -807,7 +795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -827,7 +815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -847,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -867,7 +855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -887,7 +875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -907,7 +895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -927,7 +915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -947,7 +935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -967,7 +955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -987,8 +975,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t xml:space="preserve">files</t>
   </si>
@@ -158,16 +158,16 @@
     <t xml:space="preserve">https://dannyjra.github.io/15_PostgreSQL_Docker/15_Docker_PostGreSQL_BLOG.html</t>
   </si>
   <si>
-    <t xml:space="preserve">19_Docker_NiFi_BLOG.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 Docker NiFi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19_Pipenv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/19_Pipenv/19_Docker_NiFi_BLOG.html</t>
+    <t xml:space="preserve">19_Pipenv_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Pipenv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_Pipenv/00_blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/19_Pipenv/00_blog/19_Pipenv_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">54_Firebase_Shiny_BLOG.html</t>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://dannyjra.github.io/72_Nginx/72_Nginx_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73_Blogdown_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73 Blogdown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74_Blogdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/74_Blogdown/73_Blogdown_BLOG.html</t>
   </si>
 </sst>
 </file>
@@ -995,6 +1007,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve">files</t>
   </si>
@@ -164,10 +164,10 @@
     <t xml:space="preserve">19 Pipenv </t>
   </si>
   <si>
-    <t xml:space="preserve">19_Pipenv/00_blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/19_Pipenv/00_blog/19_Pipenv_BLOG.html</t>
+    <t xml:space="preserve">19_Pipenv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/19_Pipenv/19_Pipenv_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">54_Firebase_Shiny_BLOG.html</t>
@@ -194,6 +194,18 @@
     <t xml:space="preserve">https://dannyjra.github.io/58_Django/01_blog_basics/58_django_basics_BLOG.html</t>
   </si>
   <si>
+    <t xml:space="preserve">58-02_django_deployment_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58-02 django deployment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58_Django/02_django_deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/58_Django/02_django_deployment/58-02_django_deployment_BLOG.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">61_sparklyr_BLOG.html</t>
   </si>
   <si>
@@ -228,6 +240,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://dannyjra.github.io/67_MongoDB/MongoDB_-setup_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68_1_python_libraries_graphql_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 1 python libraries graphql </t>
+  </si>
+  <si>
+    <t xml:space="preserve">68_GraphQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/68_GraphQL/68_1_python_libraries_graphql_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">69_python_R_BLOG.html</t>
@@ -1027,6 +1051,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t xml:space="preserve">files</t>
   </si>
@@ -248,10 +248,10 @@
     <t xml:space="preserve">68 1 python libraries graphql </t>
   </si>
   <si>
-    <t xml:space="preserve">68_GraphQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/68_GraphQL/68_1_python_libraries_graphql_BLOG.html</t>
+    <t xml:space="preserve">68_GraphQL/68_1 Python libraries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/68_GraphQL/68_1 Python libraries/68_1_python_libraries_graphql_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">69_python_R_BLOG.html</t>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://dannyjra.github.io/74_Blogdown/73_Blogdown_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77_1_Portainer_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77 1 Portainer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">77_Docker/77_1_Portainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/77_Docker/77_1_Portainer/77_1_Portainer_BLOG.html</t>
   </si>
 </sst>
 </file>
@@ -1091,6 +1103,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">files</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://dannyjra.github.io/77_Docker/77_1_Portainer/77_1_Portainer_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78_Docker2/77_1_Portainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/78_Docker2/77_1_Portainer/77_1_Portainer_BLOG.html</t>
   </si>
 </sst>
 </file>
@@ -1123,6 +1129,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">files</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://dannyjra.github.io/78_Docker2/77_1_Portainer/77_1_Portainer_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81_flask_connexion1_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81 flask connexion1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81_Flask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/81_Flask/81_flask_connexion1_BLOG.html</t>
   </si>
 </sst>
 </file>
@@ -1149,6 +1161,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t xml:space="preserve">files</t>
   </si>
@@ -330,6 +330,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://dannyjra.github.io/81_Flask/81_flask_connexion1_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95_Zeppelin_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95 Zeppelin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">95_Zeppelin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/95_Zeppelin/95_Zeppelin_BLOG.html</t>
   </si>
 </sst>
 </file>
@@ -1181,6 +1193,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -314,10 +314,10 @@
     <t xml:space="preserve">https://dannyjra.github.io/77_Docker/77_1_Portainer/77_1_Portainer_BLOG.html</t>
   </si>
   <si>
-    <t xml:space="preserve">78_Docker2/77_1_Portainer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dannyjra.github.io/78_Docker2/77_1_Portainer/77_1_Portainer_BLOG.html</t>
+    <t xml:space="preserve">78_Docker-Hub/77_1_Portainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/78_Docker-Hub/77_1_Portainer/77_1_Portainer_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">81_flask_connexion1_BLOG.html</t>

--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t xml:space="preserve">files</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://dannyjra.github.io/95_Zeppelin/95_Zeppelin_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96_ML_Workspace_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96 ML Workspace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">96_ML_Workspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/96_ML_Workspace/96_ML_Workspace_BLOG.html</t>
   </si>
 </sst>
 </file>
@@ -1213,6 +1225,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">files</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://dannyjra.github.io/09_Reticulate/09_Reticulate3_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105_Vault_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 Vault </t>
+  </si>
+  <si>
+    <t xml:space="preserve">105_Vault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/105_Vault/105_Vault_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">15_Docker_PostGreSQL_BLOG.html</t>
@@ -1167,19 +1179,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1187,10 +1199,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
         <v>104</v>
@@ -1242,6 +1254,26 @@
         <v>113</v>
       </c>
       <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
         <v>11</v>
       </c>
     </row>

--- a/00_Template/links.xlsx
+++ b/00_Template/links.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t xml:space="preserve">files</t>
   </si>
@@ -156,6 +156,42 @@
   </si>
   <si>
     <t xml:space="preserve">https://dannyjra.github.io/105_Vault/105_Vault_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108_R_VSCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/108_R_VSCode/07_DSVM_Part1_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_Grafana_Part1_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 Grafana Part1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110_grafana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/110_grafana/07_Grafana_Part1_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121_performance_tuning_spark/110_grafana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/121_performance_tuning_spark/110_grafana/07_Grafana_Part1_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121_Databricks_Part1_BLOG.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121 Databricks Part1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">121_performance_tuning_spark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dannyjra.github.io/121_performance_tuning_spark/121_Databricks_Part1_BLOG.html</t>
   </si>
   <si>
     <t xml:space="preserve">15_Docker_PostGreSQL_BLOG.html</t>
@@ -695,7 +731,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -919,19 +955,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -939,19 +975,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -959,19 +995,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -979,19 +1015,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -999,19 +1035,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1019,19 +1055,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1039,19 +1075,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1059,19 +1095,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1079,19 +1115,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1099,19 +1135,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1119,19 +1155,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1139,19 +1175,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1159,19 +1195,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1179,19 +1215,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1205,13 +1241,13 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1219,19 +1255,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
         <v>106</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
         <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1239,19 +1275,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
         <v>111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>113</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1259,21 +1295,101 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
         <v>114</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
         <v>117</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
         <v>11</v>
       </c>
     </row>
